--- a/04_teoria/fichamentos_revisaoempirica.xlsx
+++ b/04_teoria/fichamentos_revisaoempirica.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/LAPEI-CIGETS/GitHub/tcp/04_teoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP I3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{68ACD010-B9EE-404C-AB83-7B3E296B84E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0523406-4589-471C-9A89-FC10915C508D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{452AB953-78D9-4BBF-9703-B47EB4D54F18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$I$17</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Autores</t>
   </si>
@@ -93,29 +95,188 @@
     <t>Uma importante implicação política de nossa pesquisa é a necessidade de fornecer suporte contínuo aos autônomos para que possam persistir no trabalho autônomo e, assim, colher os benefícios monetários e não monetários do trabalho autônomo.</t>
   </si>
   <si>
-    <t>Síntase geral</t>
-  </si>
-  <si>
-    <t>O estudo buscou analisar como os padrões de carreira de trabalhadores por conta própria influencia o sucesso profissional, verificando se entre os trabalhadores autônomos persistentes o nível de satisfação é maior. É utilizado dados do Painel Socioeconômico Alemão (SOEP) do período que compreende os anos de 1991 a 2016 selecionando indivíduos que tiveram experiência com trabalho autônomo, excluído os agricultores e ajudantes em empresa familiar, totalizando uma amostra de 205 pessoas. Para identificação dos padrões foi empregado o método da análise de sequência com a técnica OMspell para medição de dissimilaridades e ligação de Ward para clusterização. Os autores reconheceram quatro padrões de carreira de trabalho por conta própria denominados: padrões mistos (33% da amostra), padrões por necessidade (29% da amostra), padrões intermitentes (24% da amostra) e padrões persistente (14% da amostra). Para estimar os seus efeitos sobre o sucesso profissional, foi utilizada a regressão de mínimos quadrados generalizados instrumentalizando como variáveis proxy: a renda bruta, satisfação com o trabalho e satisfação com a vida. A maior renda bruta média foi entre os autônomos persistente (4.571 euros), e o menor entre os autônomos por necessidade (2.341 euros). Respectivamente, a satisfação média no trabalho foi 7,41 e 6,78, e a satisfação média com a vida, de 7,19 e 6,82. Os resultados dos modelos de regressão mostraram que os trabalhadores persistentes têm maior renda, satisfação profissional e de vida. O engajamento contínuo no trabalho por conta própria é apontado como fator que promove liberdade e autonomia, e que por consequência, leva a um maior nível de satisfação. Também é identificado que em muitos casos, o trabalho por conta própria não é um fim, mas sim um ponto de inflexão em uma trajetória marcada por transições frequentes.</t>
-  </si>
-  <si>
     <t>Beusch e Soest (2020)</t>
   </si>
   <si>
     <t>Analisar a heterogeneidade das carreiras do mercado de trabalho que envolvem trabalho autônomo.</t>
   </si>
   <si>
-    <t>É utilizado dados do Painel de Renda (IPO) do Statistics Netherlands do período de 1989 a 2017 (29 anos), acompanhando indivíduos em coortes de 5 anos de acordo com o ano de nascimento. Foram selecionados indivíduos que no intervalo de 24 a 66 anos (idade produtiva), e que houvesse pelo menos 14 anos de dados. Totalizou uma amostra de aproximadamente 51.000 de indivíduos. Foi utilizada a análise de sequência para identificação dos padrões de carreira aplicando a técnica Optimal Matching para medição de dissimilaridade com custo de substituição como 2 e o indel 1,5 e a técnica de Ward para os agrupamentos. A análise foi realizada para cada uma das 9 coortes e foram definidas 7 clusters: Fraca vinculação ao mercado de trabalho, Beneficiários de assistência social, curtos períodos como autônomo, empregados que mudam para autônomo mais tarde, sempre autônomo como única ocupação, sempre autônomo híbrido e DGAs.</t>
+    <t>As mulheres são maioria significativa no cluster de fraca vinculação ao mercado de trabalho (aproximadamente 93%) e no de beneficiários de benefícios (aproximadamente 60%). A distribuição de gênero é mais equilibrada no curtos períodos como autônomo, e as demais a maioria são de homens. Os resultados indicam que homens passam mais tempo no trabalho por contra própria.</t>
+  </si>
+  <si>
+    <t>Nos grupos Fraca vinculação ao mercado de trabalho, Beneficiários de benefícios e  Curtos períodos como autônomo, a duração mediana do período é de apenas 2 a 3 anos, enquanto os indivíduos nos outros grupos têm uma duração mediana de pelo menos 7 anos. Para autônomos puros e híbridos, os 25% mais bem pagos passam quase todo o período observado em trabalho autônomo.</t>
+  </si>
+  <si>
+    <t>A mediana da renda tributável individual das mulheres é maior no grupo de empregados que miram para autônomo (19.032 euros), e entre os homens, a mediana é maior no cluster curtos períodos como conta própria (32.622 euros), com exceções dos DGAs.</t>
+  </si>
+  <si>
+    <t>É utilizado dados do Painel de Renda (IPO) do Statistics Netherlands do período de 1989 a 2017 (29 anos), acompanhando indivíduos em coortes de 5 anos de acordo com o ano de nascimento. Foram selecionados indivíduos que no intervalo de 24 a 66 anos (idade produtiva), e que houvesse pelo menos 14 anos de dados. Totalizou uma amostra de aproximadamente 51.000 de indivíduos. Foi utilizada a análise de sequência para identificação dos padrões de carreira aplicando a técnica Optimal Matching para medição de dissimilaridade com custo de substituição como 2 e o indel 1,5 e a técnica de Ward para os agrupamentos. A análise foi realizada para cada uma das 9 coortes e foram definidas 7 clusters: (1) autônomos com fraca inserção no mercado de trabalho; (2) autônomos que passam grande parte de sua trajetória como beneficiários de benefícios; (3) empregados com curtos períodos de trabalho autônomo; (4) empregados que migram para o trabalho autônomo mais tarde na carreira; (5) sempre autônomos puros; (6) sempre autônomos híbridos; e (7) Diretores Administrativos Gerais (ADGs) (diretores e acionistas majoritários). Por fim, é estimada uma regressão de efeitos fixos para analisar diferença na renda tributável individual dos clustes em comparação aos empregados.</t>
+  </si>
+  <si>
+    <t>Bay e Koster (2023)</t>
+  </si>
+  <si>
+    <t>Analisar a heterogeneidade dos autônomos por meio de suas trajetórias de carreira de longo prazo.</t>
+  </si>
+  <si>
+    <t>Não achei nenhuma conclusão mais econômica ou implicações que os autores tenham apresentado. A pouca discussão realizada foi com relação a variável riqueza no qual eu não inclui nessas observações por não achar tão pertinente. Talvez valha a pena analisar (ler) esse artigo novamente.</t>
+  </si>
+  <si>
+    <t>Os resultados das regressão mostraram que o cluster DGAs foi o único que ganha significativamente mais que os empregados e que com exceção dos autônomos híbridos e dos que migram para o trabalho por conta própria mais tarde que não apresentaram diferença significativa, todos os demais têm rendimentos menores que os empregados. Obs: achei esse artigo ruinzinho.</t>
+  </si>
+  <si>
+    <t>O estudo buscou analisar como os padrões de carreira de trabalhadores por conta própria influencia o sucesso profissional, verificando se entre os trabalhadores autônomos persistentes o nível de satisfação é maior. É utilizado dados do Painel Socioeconômico Alemão (SOEP) do período que compreende os anos de 1991 a 2016 selecionando indivíduos que tiveram experiência com trabalho autônomo, excluído os agricultores e ajudantes em empresa familiar, totalizando uma amostra de 205 pessoas. Para identificação dos padrões foi empregado o método da Análise de Sequência com a técnica OMspell para medição de dissimilaridades e ligação de Ward para clusterização. Os autores reconheceram quatro padrões de carreira de trabalho por conta própria denominados: padrões mistos (33% da amostra), padrões por necessidade (29% da amostra), padrões intermitentes (24% da amostra) e padrões persistente (14% da amostra). Para estimar os seus efeitos sobre o sucesso profissional, foi utilizada a regressão de mínimos quadrados generalizados instrumentalizando como variáveis proxy: a renda bruta, satisfação com o trabalho e satisfação com a vida. A maior renda bruta média foi entre os autônomos persistente (4.571 euros), e o menor entre os autônomos por necessidade (2.341 euros). Respectivamente, a satisfação média no trabalho foi 7,41 e 6,78, e a satisfação média com a vida, de 7,19 e 6,82. Os resultados dos modelos de regressão mostraram que os trabalhadores persistentes têm maior renda, satisfação profissional e de vida. O engajamento contínuo no trabalho por conta própria é apontado como fator que promove liberdade e autonomia, e que por consequência, leva a um maior nível de satisfação. Também é identificado que em muitos casos, o trabalho por conta própria não é um fim, mas sim um ponto de inflexão em uma trajetória marcada por transições frequentes.</t>
+  </si>
+  <si>
+    <t>O objetivo do estudo é analisar a heterogeneidade das carreiras que envolvem o trabalho.É utilizado dados do Income Panel Study (IPO) do Statistics Netherlands do período de 1989 a 2017 (29 anos), acompanhando indivíduos em coortes de 5 anos de acordo com o ano de nascimento. Foram selecionados indivíduos no intervalo de 24 a 66 anos (idade produtiva), e que houvesse pelo menos 14 anos de dados. Totalizou uma amostra de aproximadamente 51.000 de indivíduos. Foi utilizada a Análise de Sequência para identificação dos padrões de carreira aplicando a técnica Optimal Matching para medição de dissimilaridade a técnica de Ward para os agrupamentos. Foram definidos 7 clusters: (1) autônomos com fraca inserção no mercado de trabalho; (2) autônomos que passam grande parte de sua trajetória como beneficiários de benefícios; (3) empregados com curtos períodos de trabalho autônomo; (4) empregados que migram para o trabalho autônomo mais tarde na carreira; (5) sempre autônomos puros; (6) sempre autônomos híbridos; e (7) Diretores Administrativos Gerais (DGAs) (diretores e acionistas majoritários). Por fim, é estimada uma regressão de efeitos fixos para analisar diferença na renda tributável individual dos clusters em comparação aos empregados (que nunca desenvolveram trabalho por conta própria). Os resultados apontam uma maioria significativa de mulheres no primeiro e segundo cluster, com aproximadamente, respectivamente, 93% e 60%. A distribuição de gênero é mais equilibrada no cluster (3) e nos demais a maioria são de homens. Isto indica que homens passam mais tempo no trabalho por conta própria. A maior mediana da renda tributável individual das mulheres é no cluster (4) (19.032 euros), e entre os homens, a mediana é maior no cluster (3) (32.622 euros), com exceções dos DGAs. Os resultados das regressão mostraram que o cluster (7) foi o único que ganha significativamente mais que os empregados e que com exceção dos (6) e (4) que não apresentaram diferença significativa, todos os demais têm rendimentos menores que os empregados.</t>
+  </si>
+  <si>
+    <t>Síntese geral</t>
+  </si>
+  <si>
+    <t>É utilizado microdados do Statistics Netherlands dos anos de 2003 a 2018 (16 anos). Foram selecionados indivíduos entre 18 e 68 anos que tivesse exercido trabalho por conta própria em algum momento e com dados completos para o período analisado. Os status socioeconômicos foram coletados dos dados anuais do registro fiscal, sendo sete categorias: educação, trabalho assalariado, trabalho autônomo, diretor ou acionista majoritário de uma empresa, aposentadoria, desemprego e inatividade no mercado de trabalho. Os parâmetros totalizou uma amostra de 1,4 milhão de pessoas, da qual foi extraída uma subamostra aleatória de 42.028 indivíduos, e mais duas para garantir robustez. A Análise de Sequência foi realizada com a técnica Optimal Matching para medição de dissimilaridades e Ward para os agrupamentos. Foram definidos sete grupos: (1) Carreiras de assalariado para autônomo (30,1%); (2) Carreiras estáveis de trabalho autônomo (25,2%); (3) Transição de autônomos para acionistas (7%); (4) Combinação de emprego assalariado com trabalho autônomo (10,5%); (5) Curto período de emprego assalariado até períodos mais longos de trabalho autônomo (16%); (6)  Longos períodos de desemprego combinados com breves períodos de trabalho autônomo (5,4%) e (7) Inatividade de longo prazo interrompida por curtos períodos de trabalho autônomo (5,8%). Por fim, é realizada uma regressão multinomial exploratória para entender como características sociodemográficas influenciam as chances de pertencer a determinado cluster.</t>
+  </si>
+  <si>
+    <t>O único grupo em que as mulheres são maioria significativa (84%) é os padrões de carreira que combina inatividade com trabalho autônomo. Por outro lado, homens são super-representados nos clusters 2 (67,3%), 3 (79,6%) e 4 (60,6%), enquanto os demais apresentam maior equlíbrio na distribuição de gênero.</t>
+  </si>
+  <si>
+    <t>Os setores de cuidado e serviços de saúde que são tipicamente femininos é caracterizado por um alto nível de trabalho autônomo involuntário, o que é apontado como um fator que explica a sobrerrepresentação das mulheres no último cluster. O que também pode ser explicado pela responsabilidade feminina na educação dos filhos, sendo o trabalho autônomo um meio de retornar ao mercado de trabalho.</t>
+  </si>
+  <si>
+    <t>As carreiras precárias de trabalho autônomo (Clusters 6 e 7) incluem as pessoas mais velhas. O Cluster 1 (carreiras SE baseadas em WE) é o cluster mais jovem, com uma idade média de 47 anos em 2018 e os demais não diferem muito em termos de idade.</t>
+  </si>
+  <si>
+    <t>Os padrões de carreira que apresentam maior nível educacional são aqueles com autônomos estáveis ou combinados com o trabalho assalariado, sendo o maior o cluster 3 com 67,2% com ensino superior, e os clusters 1, 2, 4 e 5 variando de 42,8% à 49,7%. E os clusters 6 e 7, com trajetórias mais precárias, variando de 21,3% a 26,2%, respectivamente.</t>
+  </si>
+  <si>
+    <t>Com relação a renda anual sobre marcação do ano de 2018, o cluster 3 apresentou o maior valor de aproximadamente 55 mil euros, enquanto os clusters 1, 2, 4 e 5 variou entre aproximadamente 32 a 39 mil euros. E as carreira precárias com cerca de 17 mil e 8 mil euros, respectivamente, para os dois últimos clusters.</t>
+  </si>
+  <si>
+    <t>Relativamente muitos indivíduos em SE estável trabalham na agricultura, os autônomos corporativos trabalham principalmente em negócios ou serviços financeiros. As carreiras precárias em SE são super-representadas, especialmente no varejo (precário I) e na saúde (precário II).</t>
+  </si>
+  <si>
+    <t>Observamos que pessoas relativamente jovens são mais propensas, em relação a ter uma carreira estável de trabalho autônomo, a estar em carreiras que combinam trabalho autônomo com emprego assalariado. Pessoas mais velhas são mais propensas a experimentar carreiras precárias de trabalho autônomo.</t>
+  </si>
+  <si>
+    <t>Mulheres têm 5,667 vezes mais chances de estarem no cluster de trabalho autônomo precário motivado por necessidade do que em uma carreira autônoma estável, em comparação aos homens, e são 16,1% menos propensas a seguir uma trajetória autônoma corporativa em relação a uma estável (OR 0,839).</t>
+  </si>
+  <si>
+    <t>Pessoas no grupo de menor renda em 2003 têm uma probabilidade muito maior de seguir uma carreira autônoma precária em vez de uma estável (OR 2,936 e 4,894 para os clusters 5 e 6, respectivamente). Ao mesmo tempo, elas são 83,5% menos propensas a serem autônomas corporativas em vez de estáveis, quando comparadas ao grupo de maior renda (OR 0,165).</t>
+  </si>
+  <si>
+    <t>Foi retirada da análise de regressão, porque têm alta proporção de missings.</t>
+  </si>
+  <si>
+    <t>Carreiras estáveis em SE são mais amplamente disseminadas em regiões rurais e menos comuns em urbanas. Isso pode ser consequência da falta de concorrência e outras oportunidades de emprego em regiões rurais. As carreiras corporativas de SE são super-representadas em áreas intermediárias. Os dois padrões de carreira precária de SE mostram tendências em direções opostas. O primeiro cluster precário apresenta-se como um fenômeno urbano, enquanto o segundo cluster precário é sub-representado em regiões urbanas e super-representado em regiões rurais. Isso reforça que carreiras precárias estão presentes em diferentes contextos e que as crises econômicas as afetam de forma diferente dependendo desses contextos.</t>
+  </si>
+  <si>
+    <t> para a maioria dos clusters no nível urbano e intermediário, os indivíduos são mais propensos a seguir padrões de carreira diferentes do SE estável quando comparados às regiões rurais. Isso está de acordo com os achados descritivos e sugere a presença de variação regional nos padrões de carreira.</t>
+  </si>
+  <si>
+    <t>Carreiras mistas de trabalho autônomo são o tipo mais prevalente na Holanda, representando 56,6% das carreiras exploradas. Isso está em linha com a observação de que a experiência no mercado de trabalho e a aquisição de habilidades relevantes são os principais impulsionadores do trabalho autônomo e seu sucesso (Oberschachtsiek 2012 ). Vindo de uma posição estável de emprego assalariado, as pessoas têm segurança financeira para planejar e buscar oportunidades de negócios que correspondam à sua formação profissional e conjunto de habilidades, tornando assim uma transição bem-sucedida mais provável.</t>
+  </si>
+  <si>
+    <t>Sobre a ótica setorial, os resultados mostraram uma proporção do setor de saúde e construção e manufatura entre os padrões de autônomo estáveis, e nos cluster 7 e 8, são mais disseminados no varejo e saúde, respectivamente para o clusters 6 e 7.</t>
+  </si>
+  <si>
+    <t>Muitos dos autônomos possuem experiência pregressa no mercado privado, que a partir das competência e habilidade desenvolvidas têm mais chances para uma transição bem-sucedida, considerando a maior segurança financeira.</t>
+  </si>
+  <si>
+    <t>Bay e Koster (2023) avança na análise de heterogeneidade de carreiras de longo prazo de trabalhadores por conta própria ao agregar as perspectivas setorial e regional. São utilizados microdados do Statistics Netherlands dos anos de 2003 a 2018 (16 anos), selecionados indivíduos entre 18 e 68 anos que tivesse exercido trabalho por conta própria em algum momento e com dados completos para o período analisado. São definidas sete categorias a partir das classificações anuais do registro fiscal: educação, trabalho assalariado, trabalho autônomo, diretor ou acionista majoritário de uma empresa, aposentadoria, desemprego e inatividade no mercado de trabalho. Os parâmetros totalizou uma amostra de 1,4 milhão de pessoas, da qual foi extraída uma subamostra aleatória de 42.028 indivíduos. O método empregado para análise das trajetórias foi a Análise de Sequência com a técnica Optimal Matching para medição de dissimilaridades e Ward para os agrupamentos.  Foram definidos sete grupos com a proporção entre parêntese: (1) Carreiras longas de assalariado para autônomo (30,1%); (2) Carreiras estáveis de trabalho autônomo (25,2%); (3) Transição de autônomos para acionistas (7%); (4) Combinação de emprego assalariado com trabalho autônomo (10,5%); (5) Curto período de emprego assalariado com períodos mais longos de trabalho autônomo (16%); (6) Longos períodos de desemprego combinados com breves períodos de trabalho autônomo (5,4%) e (7) Inatividade de longo prazo interrompida por curtos períodos de trabalho autônomo (5,8%). Por fim, é realizada uma regressão multinomial exploratória para entender como características sociodemográficas influenciam as chances de pertencer a determinado cluster. Os resultados mostraram que mulheres têm 5,7 vezes mais chances de estar em um padrão de carreira de trabalho por conta própria precário (cluster 6 e 7), e têm menos chances de estarem inseridas em uma transição de autônomo para acionistas, a alta proporção de mulheres no último cluster é atribuído a crise de 2008 que diante uma renda familiar frustrada, as mulheres tiveram que sair na inatividade para o mercado de trabalho. Quanto à idade, pessoas mais jovens têm maior propensão a estarem em carreiras estáveis e combinadas com o trabalho assalariado, e os mais velhos em trajetórias de mais precariedade. As carreiras estáveis de trabalho autônomo é mais disseminada em regiões urbanas, assim como o cluster 6, enquanto o (7) é sobrerepresentado em localidades rurais. Um dos fatores atribuídos a isso, é a falta de oportunidades de emprego em regiões ruralizadas, o que torna o trabalho autônomo uma necessidade. Sobre a ótica setorial, os resultados mostraram uma proporção do setor de construção e manufatura entre os padrões de autônomo estáveis, e nos cluster 7 e 8, são mais disseminados no varejo e saúde, respectivamente para o clusters 6 e 7.</t>
+  </si>
+  <si>
+    <t>Litsardopoulos et al. (2022)</t>
+  </si>
+  <si>
+    <t>Avalia o impacto da experiência acumulada de trabalho autônomo sobre o bem-estar em três dimensões: satisfação com o trabalho, lazer e renda.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/0143831X221086017</t>
+  </si>
+  <si>
+    <t>A diferença de média da satisfação com lazer e renda entre assalariados e autônomos foram não significativas, e a média de satisfação com o trabalho foi maior para os conta-próprias.</t>
+  </si>
+  <si>
+    <t>A medida que aumenta a experiência de trabalho autônomo, a satisfação com o trabalho aumenta. No entanto, existe uma relação não-monotônica, da qual o ganho marginal da satisfação é maior no início, mas depois se torna decrescente até se tornar negativa. Ao analisar por gênero, observou-se que a satisfação em nível é maior entre os homens, no entanto o teste de equivalência dos coeficientes não mostrou diferença significativa entre homens e mulheres, isto é, o tempo como trabalho autônomo impacta de forma similar a satisfação com o trabalho. Para as demais dimensões, não houve impacto significativo.</t>
+  </si>
+  <si>
+    <t>Efeitos aleatórios e fixos</t>
+  </si>
+  <si>
+    <t>Os resultados demonstram que há uma associação positiva entre o empreedendorismo e bem-estar, especialmente no início em que há maior entusiasmo e otimismo, mas que depois se dissipa ao deparar com longas horas de trabalho, estresse e incertezas.</t>
+  </si>
+  <si>
+    <t>A mesma análise foi realizada excluindo os que eram trabalhadores autônomos em todo o período, mantendo os que tiveram experiência como assalariado e conta-própria. O impacto não-linear também foi significativo para ambos os sexos, mas de forma distinta, as mulheres têm uma redução da satisfação de trabalho, após o inicio, muito mais rápida e significativa em comparação aos homens. E essa redução é ainda mais acentuada sobre a satisfação com o lazer, para os homens não houve efeito significativo. Já com relação a satisfação com a renda, é para ambos, significativos, no entanto com impactos opostos, enquanto as mulheres experimentam um aumento da renda seguida de uma redução conforme uma relação não-monotônica, para os homens é o contrário, começam com uma redução, e depois, a medida que aumenta o percentual do tempo como autônomo, se torna positivo.</t>
+  </si>
+  <si>
+    <t>O potencial de benefícios em decorrência do trabalho autônomo parece ser mais amplo entre as mulheres, ao aumentar a satisfação para além do trabalho, como o lazer. Isso sugere que as mulheres desenvolvem trabalho autônomo buscando maior equilíbrio entre a vida pessoal e profissional. Os efeitos marginais descrescentes é maior entre as mulheres, no qual é apontado como um fator o seu papel social como mulher e as expectativas de gênero.</t>
+  </si>
+  <si>
+    <t>É utilizado dados de nove ondas da Pesquisa Longitudinal de Domicílios do Reino Unido (UKHLS) compreendendo o período de 2009 a 2019, selecionando os indivíduos que exerceram trabalho assalariado ou autônomo na primeira onda e que tivesse informações completas para as nove ondas. Resultando um painel balanceado de 3.051 entrevistados. Para testar as hipóteses é instrumentalizado modelos logit de efeitos aleatórios para homens e mulheres e para as três dimensões analisadas como variáveis dependentes, tendo como variável de interesse o percentual de tempo de trabalho como autônomo controlada pela idade, educação, estado civil, número de filhos e sua faixa etária, emprego de meio período ou período integral, residência em área rural ou urbana, se os indivíduos nasceram no Reino Unido e indústria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estudo buscou avaliar o efeito da experiência acumulada de trabalho autônomo sobre o bem-estar em três dimensões: satisfação com o trabalho, lazer e renda. Foi utilizado dados de nove ondas da Pesquisa Longitudinal de Domicílios do Reino Unido (UKHLS) compreendendo o período de 2009 a 2019, selecionando os indivíduos que exerceram trabalho assalariado ou autônomo na primeira onda e que tivesse informações completas para toda a pesquisa. Resultando um painel balanceado de 3.051 entrevistados. Para testar as hipóteses é instrumentalizado modelos logit de efeitos aleatórios para homens e mulheres e para as três dimensões analisadas como variáveis dependentes, tendo como variável de interesse o percentual de tempo de trabalho como autônomo. O artigo desmontrou que a medida que aumenta a experiência de trabalho autônomo, a satisfação com o trabalho aumenta. No entanto, existe uma relação não-monotônica, da qual o ganho marginal da satisfação é maior no início, mas depois se torna decrescente até se tornar negativa. Ao analisar por gênero, o teste de equivalência dos coeficientes não mostrou diferença significativa, isto é, o tempo como trabalho autônomo impacta de forma similar a satisfação com o trabalho entre homens e mulheres. Para as demais dimensões, não houve impacto significativo. Este resultado é atribuído ao entusiasmo e otimismo, mas que depois se dissipa ao deparar com longas horas de trabalho, estresse e incertezas. Uma análise adicional foi realizada excluindo os que eram trabalhadores autônomos em todo o período, mantendo os que tiveram experiência como assalariado e conta-própria. O impacto não-linear também foi significativo para ambos os sexos, mas de forma distinta, as mulheres têm uma redução da satisfação de trabalho, após o inicio, muito mais rápida e significativa em comparação aos homens. E essa redução é ainda mais acentuada sobre a satisfação com o lazer, para os homens não houve efeito significativo. Já com relação a satisfação com a renda, é para ambos, significativos, no entanto com impactos opostos, enquanto as mulheres experimentam um aumento da renda seguida de uma redução conforme uma relação não-monotônica, para os homens é o contrário, começam com uma redução, e depois, a medida que aumenta o percentual do tempo como autônomo, se torna positivo. O potencial de benefícios em decorrência do trabalho autônomo parece ser mais amplo entre as mulheres, ao aumentar a satisfação para além do trabalho, como o lazer. Isso sugere que as mulheres desenvolvem trabalho autônomo buscando maior equilíbrio entre a vida pessoal e profissional. Os efeitos marginais descrescentes é maior entre as mulheres, no qual é apontado como um fator o seu papel social como mulher e as expectativas de gênero.
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00168-022-01139-5</t>
+  </si>
+  <si>
+    <t>Análise de sequência e Regressão Multonomia</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10645-020-09358-x</t>
+  </si>
+  <si>
+    <t>Análise de sequência e Efeitos Fixos</t>
+  </si>
+  <si>
+    <t>Tipo/Método</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jbusvent.2019.105998</t>
+  </si>
+  <si>
+    <t>Análise de sequência e Mínimos Quadrados Generalizados</t>
+  </si>
+  <si>
+    <t>Bider (2024)</t>
+  </si>
+  <si>
+    <t>Analisar como as preocupações empreendedoras ao se tornar autônomo impacta na satisfação geral com a vida.</t>
+  </si>
+  <si>
+    <t>É utilizado dados do Painel Socioeconômico Alemão (SOEP) compreendendo o período 1984-2020. Foram selecionados indivíduos que desenvolveram trabalho autônomo em tempo integral com idade entre 17 e 65 anos e excluída as atividades de ajudante em empresa familiar e agricultor, resultando em uma amostra de 2.015 pessoas. Para testar as hipóteses é instrumentalizado um modelo de Regressões Aparentemente Não Relacionadas (SUR). A variável dependente é a satisfação com a vida e a variável independente de interesse é a que marca a transição para o trabalho autônomo. O método ainda tem como componente relevante uma variável mediadora, preocupações empreendedoras, por meio do qual se busca estimar um efeito de se tornar autônomo sobre a preocupação empreendedora e o seu consequente impacto sobre a satisfação com a vida. Para neutralizar o efeito da idade sobre a satisfação, é incluído um grupo de controle que não são autônomos, mas que se assemelham à esses. As variáveis de controle são: escolaridade, idade, estado civil, tipo de domicílio, deficiência, nacionalidade e personalidade.</t>
+  </si>
+  <si>
+    <t>A preocupação empreendedora é decomposta em três variáveis: preocupações com o desenvolvimento econômico, situação financeira e segurança do emprego. Além dessas variáveis, a renda e horas trabalhadas também foram agregadas como mediadoras no modelo. Os resultados mostraram que migrar para o trabalho autônomo têm um efeito indireto negativo na satisfação com a vida através das variáveis preocupações financeira (b = -0,05) e horas de trabalho (b = -0,04), e positivamente com a segurança no emprego (b = 0,01). A renda só foi significativa em um modelo alternativo construído com um grupo de controle menos restrito com um coeficiente de 0,01, mas ainda menor que preocupações financeiras que teve o mesmo efeito anterior. Indicando que a percepção subjetiva com as finanças tem um influência maior que a mudança objetiva de renda. Os efeitos opostos de se tornar autônomo sobre as preocupações com a segurança no emprego e a situação financeira, positivamente e negativamente, respectivamente, podem explicar um efeito geral da migração para autônomo estatísticamente não significativo sobre a satisfação com a vida (efeito direto).</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.joep.2024.102773</t>
+  </si>
+  <si>
+    <t>Ainda é feita análise de heterogenidade desagregando por motivações de se tornar autônomo: por oportunidade e necessidade. Foi observado, que no caso dos autônomos por oportunidade, há um efeito indireto positivo na satisfação com a vida através da variáveis segurança no emprego (b = 0,01) e na renda (b = 0,02), e horas de trabalho (b = -0,04), mas um efeito direto de se tornar autônomo não significativo. Por outro lado, os autônomos por necessidade, experimentaram um efeito direto significativo sobre a satisfação com a vida (b = 0,71), e indireto com preocupações financeiras (b = 0,19).</t>
+  </si>
+  <si>
+    <t>O estudo fornece evidência de um efeito mediador das variáveis subjetivas (preocupações empreendedoras) sobre a satisfação com a vida, e confirma a heterogenidade ao se deparar com resultados distintos ao desagregar por tipos de autônomos. No entanto, dada as limitações da pesquisa, os resultados devem ser lidos como evidências e não uma relação de causalidade.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,10 +334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -187,7 +349,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -199,19 +382,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,135 +704,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB025018-6469-4221-9FBB-B48AC654FCD9}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="3" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="38.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="69.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46" style="3" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="101.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="28">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H9:H15"/>
     <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/04_teoria/fichamentos_revisaoempirica.xlsx
+++ b/04_teoria/fichamentos_revisaoempirica.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP I3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/LAPEI-CIGETS/GitHub/tcp/04_teoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_033BD62EAC37CBAFCAA82BD66F7A2C0C8B5C2EA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C32D09-5A1E-4305-A325-46E7A024CFCA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Autores</t>
   </si>
@@ -63,9 +55,6 @@
   </si>
   <si>
     <t>Em termos de satisfação no trabalho, os padrões de trabalho autônomo persistentes tiveram a maior satisfação média no trabalho de 7,41, enquanto os de necessidade tiveram a menor satisfação média no trabalho de 6,78. Os padrões de trabalho autônomo persistentes também tiveram a maior satisfação média com a vida de 7,19 e os padrões de trabalho autônomo por necessidade tiveram a menor satisfação média com a vida de 6,82.</t>
-  </si>
-  <si>
-    <t>É utilizado dados do Painel Socioeconômico Alemão (SOEP) do período que compreende os anos de 1991 a 2016 de indivíduos que tiveram experiência com trabalho autônomo, excluído os agricultores e ajudantes em empresa familiar, totalizando uma amostra de 205 pessoas. Para identificação dos padrões foi empregado o método da análise de sequência com a técnica OMspell para medição de dissimilaridades e ligação de Ward para clusterização. Os autores reconheceram quatro clusters de carreira de trabalho por conta própria denominados: padrões mistos (33% da amostra), padrões por necessidade (29% da amostra), padrões intermitentes (24% da amostra) e padrões persistente (14% da amostra). Os autores testaram a hipótese através da análise de regressão de mínimos quadrados generalizados, utilizando como variáveis proxy de sucesso: a renda bruta, satisfação com o trabalho e satistação com a vida.</t>
   </si>
   <si>
     <t>Principais resultados descritivos</t>
@@ -222,9 +211,6 @@
     <t>https://doi.org/10.1007/s00168-022-01139-5</t>
   </si>
   <si>
-    <t>Análise de sequência e Regressão Multonomia</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/s10645-020-09358-x</t>
   </si>
   <si>
@@ -246,12 +232,6 @@
     <t>Analisar como as preocupações empreendedoras ao se tornar autônomo impacta na satisfação geral com a vida.</t>
   </si>
   <si>
-    <t>É utilizado dados do Painel Socioeconômico Alemão (SOEP) compreendendo o período 1984-2020. Foram selecionados indivíduos que desenvolveram trabalho autônomo em tempo integral com idade entre 17 e 65 anos e excluída as atividades de ajudante em empresa familiar e agricultor, resultando em uma amostra de 2.015 pessoas. Para testar as hipóteses é instrumentalizado um modelo de Regressões Aparentemente Não Relacionadas (SUR). A variável dependente é a satisfação com a vida e a variável independente de interesse é a que marca a transição para o trabalho autônomo. O método ainda tem como componente relevante uma variável mediadora, preocupações empreendedoras, por meio do qual se busca estimar um efeito de se tornar autônomo sobre a preocupação empreendedora e o seu consequente impacto sobre a satisfação com a vida. Para neutralizar o efeito da idade sobre a satisfação, é incluído um grupo de controle que não são autônomos, mas que se assemelham à esses. As variáveis de controle são: escolaridade, idade, estado civil, tipo de domicílio, deficiência, nacionalidade e personalidade.</t>
-  </si>
-  <si>
-    <t>A preocupação empreendedora é decomposta em três variáveis: preocupações com o desenvolvimento econômico, situação financeira e segurança do emprego. Além dessas variáveis, a renda e horas trabalhadas também foram agregadas como mediadoras no modelo. Os resultados mostraram que migrar para o trabalho autônomo têm um efeito indireto negativo na satisfação com a vida através das variáveis preocupações financeira (b = -0,05) e horas de trabalho (b = -0,04), e positivamente com a segurança no emprego (b = 0,01). A renda só foi significativa em um modelo alternativo construído com um grupo de controle menos restrito com um coeficiente de 0,01, mas ainda menor que preocupações financeiras que teve o mesmo efeito anterior. Indicando que a percepção subjetiva com as finanças tem um influência maior que a mudança objetiva de renda. Os efeitos opostos de se tornar autônomo sobre as preocupações com a segurança no emprego e a situação financeira, positivamente e negativamente, respectivamente, podem explicar um efeito geral da migração para autônomo estatísticamente não significativo sobre a satisfação com a vida (efeito direto).</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.joep.2024.102773</t>
   </si>
   <si>
@@ -259,12 +239,63 @@
   </si>
   <si>
     <t>O estudo fornece evidência de um efeito mediador das variáveis subjetivas (preocupações empreendedoras) sobre a satisfação com a vida, e confirma a heterogenidade ao se deparar com resultados distintos ao desagregar por tipos de autônomos. No entanto, dada as limitações da pesquisa, os resultados devem ser lidos como evidências e não uma relação de causalidade.</t>
+  </si>
+  <si>
+    <t>Em uma análise adicional, no qual é feita a interação da variáveis de trabalho autônomo com diferentes níveis de preocupações, mostrou o trabalho autônomo está positivamente relacionado com a satisfação de vida na ausência das preocupações empreendedoras. E ao inserir essas variáveis em níveis maiores, anulam o efeito sobre a satisfação.</t>
+  </si>
+  <si>
+    <t>Regressões Aparentemente Não Relacionadas (SUR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Os resultados mostraram que migrar para o trabalho autônomo têm um efeito indireto negativo na satisfação com a vida através das variáveis preocupações financeira (b = -0,05) e horas de trabalho (b = -0,04), e positivamente com a segurança no emprego (b = 0,01). A renda só foi significativa em um modelo alternativo construído com um grupo de controle menos restrito com um coeficiente de 0,01, mas ainda menor que preocupações financeiras que teve o mesmo efeito anterior. Indicando que a percepção subjetiva com as finanças tem um influência maior que a mudança objetiva de renda. Os efeitos opostos de se tornar autônomo sobre as preocupações com a segurança no emprego e a situação financeira, positivamente e negativamente, respectivamente, podem explicar um efeito geral da migração para autônomo estatísticamente não significativo sobre a satisfação com a vida (efeito direto).</t>
+  </si>
+  <si>
+    <t>É utilizado dados do Painel Socioeconômico Alemão (SOEP) compreendendo o período 1984-2020. Foram selecionados indivíduos que desenvolveram trabalho autônomo em tempo integral com idade entre 17 e 65 anos e excluída as atividades de ajudante em empresa familiar e agricultor, resultando em uma amostra de 2.015 pessoas. Para testar as hipóteses é instrumentalizado um modelo de Regressões Aparentemente Não Relacionadas (SUR). A variável dependente é a satisfação com a vida e a variável independente de interesse é a que marca a transição para o trabalho autônomo. O método ainda tem como componente mediador as preocupações empreendedoras, por meio do qual se busca estimar um efeito de se tornar autônomo sobre a preocupação empreendedora e o seu consequente impacto sobre a satisfação com a vida.A preocupação empreendedora é decomposta em três variáveis: preocupações com o desenvolvimento econômico, situação financeira e segurança do emprego. Além dessas variáveis, a renda e horas trabalhadas também foram agregadas como mediadoras no modelo. Para neutralizar o efeito da idade sobre a satisfação, é incluído um grupo de controle que não são autônomos, mas que se assemelham à esses. As variáveis de controle são: escolaridade, idade, estado civil, tipo de domicílio, deficiência, nacionalidade e personalidade.</t>
+  </si>
+  <si>
+    <t>O estudo tem como objetivo analisar o impacto de se tornar autônomo sobre a satisfação com a vida e verificar se as preocupações empreendedoras exercem papel mediador. A heterogeneidade também é analisada a luz das motivações, definindo os autônomos por oportunidade e necessidade. É utilizado dados do Painel Socioeconômico Alemão (SOEP) compreendendo o período 1984-2020. Foram selecionados indivíduos que desenvolveram trabalho autônomo em tempo integral com idade entre 17 e 65 anos e excluída as atividades de ajudante em empresa familiar e agricultor, resultando em uma amostra de 2.015 pessoas. Para testar as hipóteses é instrumentalizado um modelo de Regressões Aparentemente Não Relacionadas (SUR). A variável dependente é a satisfação com a vida e a variável independente de interesse é a que marca a transição para o trabalho autônomo. O método ainda tem como componente mediador, por meio do qual se busca estimar um efeito de se tornar autônomo sobre a preocupação empreendedora e o seu consequente impacto sobre a satisfação com a vida. A preocupação empreendedora é decomposta em três variáveis: preocupações com o desenvolvimento econômico, situação financeira e segurança do emprego. Além dessas variáveis, a renda e horas trabalhadas também foram agregadas como mediadoras no modelo. Os resultados mostraram que migrar para o trabalho autônomo têm um efeito indireto negativo na satisfação com a vida através das variáveis preocupações financeira (b = -0,05) e horas de trabalho (b = -0,04), e positivamente com a segurança no emprego (b = 0,01). Os efeitos opostos de se tornar autônomo sobre as preocupações com a segurança no emprego e a situação financeira, positivamente e negativamente, respectivamente, podem explicar um efeito geral da migração para autônomo estatisticamente não significativo sobre a satisfação com a vida (efeito direto). Na análise de heterogenidade desagregada por motivações de se tornar autônomo, foi observado, que no caso dos autônomos por oportunidade, há um efeito indireto positivo na satisfação com a vida através da variáveis segurança no emprego (b = 0,01) e na renda (b = 0,02), e horas de trabalho (b = -0,04), mas um efeito direto de se tornar autônomo não significativo. Por outro lado, os autônomos por necessidade, experimentaram um efeito direto significativo sobre a satisfação com a vida (b = 0,71), e indireto com preocupações financeiras (b = 0,19). O estudo fornece evidência de um efeito mediador das variáveis subjetivas (preocupações empreendedoras) sobre a satisfação com a vida, e confirma a heterogenidade ao se deparar com resultados distintos ao desagregar por tipos de autônomos. No entanto, dada as limitações da pesquisa, os resultados devem ser lidos como evidências e não uma relação de causalidade.</t>
+  </si>
+  <si>
+    <t>Sun, Jin e Zhao (2023)</t>
+  </si>
+  <si>
+    <t>Identificar tipologias de empreendedores chiseses e seus respectivos efeitos de saúde e econômicos.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1332/175795921X16889785709088</t>
+  </si>
+  <si>
+    <t>É utilizado dados do Estudo Longitudinal da Saúde e Aposentadoria na China (CHARLS) de indivíduos com mais de 45 anos coletados no ano de 2014 com uma perspectiva retrospectiva do histórico de vida, uma amostral total de 18.723 pessoas. Foram selecionados aqueles que exerceram trabalho autônomo não agrícola como a última atividade profissional. A classificação de autônomos adotada abrange com e sem empregados. Para identificar os padrões de carreira rumo ao empreendedorismo, foi empregado o método de análise de cluster com a técnica optimal matching para medição de dissimilaridades. As hipóteses são estadas através de modelos de mínimos quadrados ordinários construídos com três variáveis dependentes: autoavaliação de saúde (de 1 a 5), depressão (escore de questionário variando de 0 a 30) e renda (valor líquido). As variáveis de controle foram: gênero, idade, idade ao quadrado, estado civil, porcentagem de trabalho autônomo, anos de escolaridade, coorte de entrada no empreendedorismo, preditores da infância, local de residência e status atual do hukou.O número de clusters foram definidos apoiados pelas métricas pseudo-F de Calinski e Harabasz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foram definidos quatro clusters com as respectivas proporções em parênteses: (1) empreendedores agricultores (45,48%), (2) empreendedores persistentes (20,40%), (3) empreendedores por necessidade (17,25%) e (4) empreendedores empregados (16,87%). No entanto, dada a heterogenidade do cluster por necessidade, o autor prossegue a análise apenas com os demais grupos por serem mais comparáveis. Mas no que tange aos dados descritivos, é observado que mulheres é maioria (57,51%), enquanto nos clusters 1, 2 e 4 a proporção é de 37,02%. Com relação a idade, a média entre os autônomos por necessidade é de 50,4 anos e de empreendedores persistentes (48,20), empreendedores empregados (53,11) e empreendedores agricultores (55,23). Os autônomos por necessidade tem percentual superior aos demais em áreas urbanas hukou não agrícola. Com relação ao percentual de casados e os anos de escolaridade são similares. </t>
+  </si>
+  <si>
+    <t>A diferença de idade pode ser atribuída ao modelo de mobilidade social, cujo a frequência de empreendedores são maiores em estratos sociais mais elevados.</t>
+  </si>
+  <si>
+    <t>Análise de sequência e Regressão Multonomial</t>
+  </si>
+  <si>
+    <t>Em termos econômicos, representado pela renda, não houve diferença significativa entre os três clusters, assim como o percentual de tempo dedicado ao trabalho autônomo (no entanto, o output na tabela mostra essa variável significativa). Enquanto a renda e o estado civil de casado são positivamente associados à renda e o  hukou (registro de domicílio) não agrícola na infância está negativamente associado à renda.</t>
+  </si>
+  <si>
+    <t>Os resultados com relação à saúde, mostrou que os agricultores apresentaram a pior autoavaliação de saúde e os autônomos empregados e persistentes não diferiram. O resultado é atribuído a tipicidade do trabalho agrícola, por ser mais pesado, apresenta impactos prejudiciais de saúde no longo prazo. O percentual de tempo de trabalho autônomo não apresentou efeito significativo na saúde autoavaliada. Os homens têm resultado de saúde significativamente maiores que as mulheres. Com relação ao segundo indicador de saúde, a depressão, não foi encontrada diferença entre os três clusters. De acordo com o estudo, os resultados convergem, respectivamente, com as teorias vantagens acumulativas e do ponto de ajuste para análise autoavaliação de saúde, e escore de depressão e renda.</t>
+  </si>
+  <si>
+    <t>Em síntese, as evidências mostram relação das tipologias com a saúde dos autônomos, sendo os com experiência pregressa na agricultura com o pior resultado. No entanto, em termos econômicos, não foi encontrado diferença significativa entre as trajetórias de carreiras.</t>
+  </si>
+  <si>
+    <t>Análise de Sequência e Mínimos Quadrados Ordinários</t>
+  </si>
+  <si>
+    <t>É utilizado dados do Painel Socioeconômico Alemão (SOEP) do período que compreende os anos de 1991 a 2016 de indivíduos alemães que tiveram experiência com trabalho autônomo, excluído os agricultores e ajudantes em empresa familiar, totalizando uma amostra de 205 pessoas. Para identificação dos padrões foi empregado o método da análise de sequência com a técnica OMspell para medição de dissimilaridades e ligação de Ward para clusterização. Os autores reconheceram quatro clusters de carreira de trabalho por conta própria denominados: padrões mistos (33% da amostra), padrões por necessidade (29% da amostra), padrões intermitentes (24% da amostra) e padrões persistente (14% da amostra). Os autores testaram a hipótese através da análise de regressão de mínimos quadrados generalizados, utilizando como variáveis proxy de sucesso: a renda bruta, satisfação com o trabalho e satistação com a vida.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -355,7 +386,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,7 +395,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,12 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,17 +729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
     <col min="4" max="4" width="88.28515625" style="3" customWidth="1"/>
@@ -727,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -739,24 +764,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>66</v>
+      <c r="A2" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>5</v>
@@ -765,26 +790,26 @@
         <v>6</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="12"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -792,284 +817,371 @@
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="390" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="F19" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="43">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I9:I15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A15"/>
@@ -1082,26 +1194,25 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I9:I15"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>